--- a/BasicMod-master/音乐牌.xlsx
+++ b/BasicMod-master/音乐牌.xlsx
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:I35"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1245,10 +1245,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
@@ -1262,10 +1262,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1277,10 +1277,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>

--- a/BasicMod-master/音乐牌.xlsx
+++ b/BasicMod-master/音乐牌.xlsx
@@ -49,10 +49,10 @@
     <t>Hekitenbansou</t>
   </si>
   <si>
-    <t>攻击后本场战斗额外3点伤害,消耗</t>
-  </si>
-  <si>
-    <t>消灭敌人后将该牌的复制置入手牌</t>
+    <t>给予敌人M层易伤，额外造成debuff数伤害</t>
+  </si>
+  <si>
+    <t>给予敌人M层易伤和脆弱</t>
   </si>
   <si>
     <t>輪符雨</t>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1188,15 +1188,19 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,30 +1209,38 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>

--- a/BasicMod-master/音乐牌.xlsx
+++ b/BasicMod-master/音乐牌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>曲名</t>
   </si>
@@ -182,6 +182,30 @@
   </si>
   <si>
     <t>恢复等于damage的血量，只有最高等级</t>
+  </si>
+  <si>
+    <t>夜影染</t>
+  </si>
+  <si>
+    <t>Yokaze</t>
+  </si>
+  <si>
+    <t>获得5点活力</t>
+  </si>
+  <si>
+    <t>获得5点临时力量</t>
+  </si>
+  <si>
+    <t>瑞程山</t>
+  </si>
+  <si>
+    <t>Panorama</t>
+  </si>
+  <si>
+    <t>消灭敌人时获得2能量</t>
+  </si>
+  <si>
+    <t>然后将两张该牌的复制置入手牌</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1840,6 +1864,96 @@
         <v>55</v>
       </c>
     </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
